--- a/src/main/webapp/resources/excel/myskill.xlsx
+++ b/src/main/webapp/resources/excel/myskill.xlsx
@@ -5,30 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\yong\LN\spring_workspace\FashionShop\src\main\webapp\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30074AE3-98DB-4E4E-875A-453282A95EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DDF2BA-C436-41A1-992A-BFDA6F414F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12765" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{378B6A5C-321D-4552-A80F-9752C63457CA}"/>
+    <workbookView xWindow="-25320" yWindow="450" windowWidth="25440" windowHeight="15990" xr2:uid="{FB639B6F-75FA-4BF9-97D0-732FBFF48800}"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
-    <sheet name="member" sheetId="2" r:id="rId2"/>
+    <sheet name="member" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,47 +36,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>react</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javascript &amp; Jquery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>node.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>react</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>javascript &amp; jquery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,21 +440,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5583E431-5170-4F65-BA44-D0D88E16E780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEACB5EA-3D96-4E64-BE91-8354D9E39758}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -477,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,10 +479,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -510,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -521,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -532,10 +523,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,10 +534,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,26 +545,24 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE06C9D-A102-4A69-8A78-166F95B4C06C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588F9EE4-034E-4867-8D2F-4FF1304DC75D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
